--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_122.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_122.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,626 +488,660 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_14</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_27</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1078869047619048</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['A', 'A/7', 'A/b7', 'A/6', 'A/b6']]</t>
-        </is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_82</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1036789297658863</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['D', 'D', 'D', 'D', 'D']]</t>
+          <t>[['B:min/F#', 'F#:7', 'B:min'], ['B:min', 'E:min/B', 'B:min']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(84.787426, 87.887535)]</t>
+          <t>[['G:min', 'D:7', 'G:min'], ['G:min', 'C:min/G', 'G:min']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(10.86, 16.05)]</t>
+          <t>[('0:01:19.420000', '0:01:26.020000'), ('0:00:27.360000', '0:00:34.920000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:0pNeVovbiZHkulpGeOx1Gj</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
+          <t>[('0:00:03.100000', '0:00:05.580000'), ('0:00:00.500000', '0:00:03.900000')]</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_6</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1769041769041769</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj'], ['A:maj/E', 'E:7', 'A:maj'], ['A:maj', 'A:maj', 'E:7/G#']]</t>
-        </is>
+          <t>isophonics_217</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_91</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.1596638655462185</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb'], ['Eb', 'Bb:7', 'Eb'], ['Eb', 'Eb', 'Bb:7']]</t>
+          <t>[['A', 'D', 'G'], ['G', 'D', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(5.7, 10.9), (15.3, 17.78), (6.46, 12.08)]</t>
+          <t>[['F:maj/A', 'A#:maj/D', 'D#:maj'], ['D#:maj', 'A#:maj', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(175.57, 179.38), (14.3, 15.21), (200.58, 201.51)]</t>
+          <t>[('0:00:42.394399', '0:00:50.173083'), ('0:00:11.465419', '0:00:19.151224')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:03:54.420000', '0:03:57.900000'), ('0:00:00.780000', '0:00:24.040000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_121</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_167</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1441647597254004</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D', 'E', 'A']]</t>
-        </is>
+          <t>isophonics_276</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>isophonics_31</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.2631578947368421</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F', 'G', 'C']]</t>
+          <t>[['G', 'E:min', 'G', 'E:min', 'G'], ['D', 'G', 'E:min', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(99.341337, 107.027142)]</t>
+          <t>[['G', 'E:min', 'G', 'E:min', 'G'], ['D', 'G', 'E:min', 'G', 'E:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(33.166077, 38.135147)]</t>
+          <t>[('0:01:51.302415', '0:02:00.973526'), ('0:00:11.607540', '0:00:21.046451')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:0suLngfo7rJoetk7Ub6N8l</t>
+          <t>[('0:00:00.456937', '0:00:11.110106'), ('0:00:45.201874', '0:00:58.077339')]</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_114</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
-        </is>
+          <t>schubert-winterreise_79</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_108</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(128.76, 133.56)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(6.726778, 13.147096)]</t>
+          <t>[('0:00:17.380000', '0:01:01.660000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>[('0:00:10.880000', '0:00:45.640000')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_66</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_24</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.03360450563204005</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['Eb:7', 'Ab:7', 'Ab:7']]</t>
-        </is>
+          <t>schubert-winterreise_85</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_11</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.3311965811965812</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Bb:7']]</t>
+          <t>[['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj'], ['D:min', 'A:maj', 'D:min', 'A:maj', 'D:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(30.62, 33.97)]</t>
+          <t>[['G:maj', 'C:min', 'G:maj', 'C:min', 'G:maj'], ['C:min', 'G:maj', 'C:min', 'G:maj', 'C:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(37.49, 40.88)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:00.660000', '0:00:06.020000'), ('0:00:01.260000', '0:00:07.700000')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:06.780000', '0:00:15.860000'), ('0:00:07.960000', '0:00:18.500000')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.2303571428571429</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'G/3']]</t>
-        </is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_28</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.2107843137254902</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>[['F#:sus4', 'F#', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
+          <t>[['C:sus4', 'C', 'F']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(60.04, 67.08)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:36.557854', '0:00:43.163931')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:00:33.059977', '0:00:38.714036')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_16</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.0945054945054945</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:maj', 'F:7', 'A#:maj'], ['F:7/D#', 'A#:maj/D', 'F:maj/C'], ['F:maj/C', 'C:7', 'F:maj'], ['C:7', 'F:maj', 'F:maj']]</t>
-        </is>
+          <t>isophonics_53</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.4285714285714285</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:7/F', 'C:maj/E'], ['G:7/F', 'C:maj/E', 'G:maj/D'], ['G:maj', 'D:7/C', 'G:maj/B'], ['D:7', 'G:maj', 'G:maj']]</t>
+          <t>[['A/3', 'E:7', 'A'], ['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(19.06, 30.08), (70.56, 74.38), (72.82, 80.0), (74.38, 84.38)]</t>
+          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(54.4, 61.44), (58.56, 62.9), (68.82, 77.92), (7.46, 13.64)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.557000', '0:01:02.834000'), ('0:00:40.490000', '0:00:47.860000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:04.300000', '0:01:05.720000'), ('0:01:02.480000', '0:01:04.920000')]</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E']]</t>
-        </is>
+          <t>schubert-winterreise_21</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_38</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.3736263736263736</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>[['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj', 'D#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(15.027029, 21.737596)]</t>
+          <t>[['A#', 'D#:min/A#', 'A#', 'D#:min', 'A#', 'D#:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(129.38, 134.38)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>[('0:00:02.020000', '0:00:10.620000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:50.820000', '0:01:04.980000')]</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>jaah_43</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07983193277310924</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Ab']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5515151515151515</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['E', 'E/3', 'A']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(94.0, 102.97)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(27.610855, 30.035034)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:54.880000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_3</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_14</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1464646464646465</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['Eb', 'Eb', 'Bb:7', 'Bb:7', 'Eb', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_166</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3833333333333333</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['Ab', 'Ab', 'Eb:7', 'Eb:7', 'Ab', 'Ab']]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(32.8, 38.22)]</t>
+          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(26.6, 37.55)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:57.540000', '0:02:01.800000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09326923076923077</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['C', 'D:min7', 'G:7', 'C']]</t>
-        </is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_167</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(62.27, 67.88)]</t>
+          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(63.84, 71.06)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:00.580000', '0:00:10.180000')]</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_234</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2072072072072072</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['Eb/5', 'Ab/2', 'Eb']]</t>
-        </is>
+          <t>schubert-winterreise_119</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_117</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(75.439, 83.381)]</t>
+          <t>[['G:maj', 'D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj'], ['B:7', 'E:min', 'D:7', 'G:maj', 'B:maj/D#', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:00:00.260000', '0:00:23.340000'), ('0:01:01.440000', '0:01:25.440000')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:01.160000', '0:00:19.200000'), ('0:00:49.080000', '0:01:08.320000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_186</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_67</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2363636363636364</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min'], ['F:min', 'C:maj', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_17</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D'], ['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>[['F:maj', 'D:7/F#', 'G:min', 'C:7/E', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.46, 13.46), (0.24, 5.08)]</t>
+          <t>[['G:maj', 'E:7/G#', 'A:min', 'D:7/F#', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(0.3, 2.82), (16.3, 19.52)]</t>
+          <t>[('0:01:15.240000', '0:01:22.340000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:01:12.080000', '0:01:19.580000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1868131868131868</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['Ab', 'Ab', 'Db']]</t>
-        </is>
+          <t>schubert-winterreise_207</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_59</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7083333333333333</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['B', 'B', 'E']]</t>
+          <t>[['C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(116.69, 119.66)]</t>
+          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(9.107074, 24.838594)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:00:31.260000', '0:00:45.880000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:00:17.180000', '0:00:48.160000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_47</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_233</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.0857843137254902</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'D']]</t>
-        </is>
+          <t>schubert-winterreise_154</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['F/3', 'Bb', 'Bb/2']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(14.751043, 21.36873)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(92.479, 97.535)]</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_90</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_74</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6000000000000001</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'E', 'A']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(154.76, 160.98)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(37.995918, 49.466575)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
+          <t>[('0:00:09.240000', '0:00:28.040000')]</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
